--- a/Small Instances 1,5/Small4,1.5.xlsx
+++ b/Small Instances 1,5/Small4,1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Small Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34651199-8EB3-4C94-856A-FE7C2904396E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F237D31-22AF-4DDE-A25D-695616A59A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6510" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Small4" sheetId="8" r:id="rId1"/>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BA4E2F-6E69-2442-81F8-2E8A962ABB19}">
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1155,50 +1155,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B11" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F6" ca="1" si="1">C2*111.021</f>
-        <v>566.88266278499998</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G11" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K6" ca="1" si="3">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <v>28.5</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1229,23 +1229,23 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D5" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>66</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1305,50 +1305,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="6">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>40.5</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -1375,23 +1375,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>60.382877999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>60</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -1445,50 +1445,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>39</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -1515,50 +1515,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1576,23 +1576,23 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1637,50 +1637,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>33</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1698,50 +1698,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>40.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1759,23 +1759,23 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2473,18 +2473,20 @@
       <c r="R40" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="41"/>
+      <c r="S40" s="41">
+        <v>30</v>
+      </c>
       <c r="T40" s="42">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="U40" s="43">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="V40" s="44">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -2887,23 +2889,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Straume</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>553.10906446199999</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6690.2990968439999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -2930,7 +2932,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -2957,50 +2959,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="10"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -3027,23 +3029,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3070,7 +3072,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>

--- a/Small Instances 1,5/Small4,1.5.xlsx
+++ b/Small Instances 1,5/Small4,1.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacobni\SamkjøringKode\samkjoring2022\Small Instances 1,5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34651199-8EB3-4C94-856A-FE7C2904396E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67C1F93-158F-488C-827F-879203F67A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-6510" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Small4" sheetId="8" r:id="rId1"/>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BA4E2F-6E69-2442-81F8-2E8A962ABB19}">
   <dimension ref="A1:AB932"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1155,50 +1155,50 @@
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B11" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:F6" ca="1" si="1">C2*111.021</f>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F2" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G2" s="3" t="str">
         <f t="shared" ref="G2:G11" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I2" s="63">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:K6" ca="1" si="3">H2*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K2" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="3" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -1229,50 +1229,50 @@
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C3" s="3">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D5" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G3" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="6">
         <f t="shared" ref="H3:H11" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="63">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="3" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -1305,23 +1305,23 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C11" ca="1" si="6">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>22.5</v>
+        <v>39</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -1375,50 +1375,50 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>60.382877999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I5" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K5" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>31.5</v>
+        <v>45</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -1445,50 +1445,50 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Straume</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1213329999999999</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="63">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>27</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -1515,50 +1515,50 @@
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="63">
         <f t="shared" ref="I7:I11" ca="1" si="11">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="8">
         <f t="shared" ref="J7:J11" ca="1" si="12">H7*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="8">
         <f t="shared" ref="K7:K11" ca="1" si="13">I7*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="3" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>72</v>
+        <v>22.5</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -1576,50 +1576,50 @@
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G8" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I8" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K8" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="3" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>40.5</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -1637,50 +1637,50 @@
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0878129999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.352223000000002</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>564.85408707299996</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="3" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>28.5</v>
+        <v>45</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -1698,50 +1698,50 @@
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G10" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="3" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>66</v>
+        <v>40.5</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -1759,50 +1759,50 @@
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" ca="1" si="6"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G11" s="3" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" ca="1" si="5"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="63">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="8">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="8">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="3" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*1.5</f>
-        <v>40.5</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="9"/>
       <c r="W11" s="2" t="s">
@@ -2473,18 +2473,20 @@
       <c r="R40" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="S40" s="41"/>
+      <c r="S40" s="41">
+        <v>30</v>
+      </c>
       <c r="T40" s="42">
         <f t="shared" si="14"/>
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="U40" s="43">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="V40" s="44">
         <f t="shared" si="16"/>
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15.75" x14ac:dyDescent="0.3">
@@ -2887,50 +2889,50 @@
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" ca="1" si="6">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" ref="C4:C6" ca="1" si="7">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" ref="E4:F4" ca="1" si="8">C4*111.021</f>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G4" s="3" t="str">
         <f t="shared" ref="G4:G6" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I4" s="63">
         <f t="shared" ref="I4:I6" ca="1" si="10">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J4" s="8">
         <f t="shared" ref="J4:K4" ca="1" si="11">H4*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K4" s="8">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="3" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -2957,23 +2959,23 @@
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bildøyna</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1060850000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>60.354084999999998</v>
+        <v>60.354616</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>566.88266278499998</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.5708707849999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G5" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3000,7 +3002,7 @@
       </c>
       <c r="M5" s="3" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -3027,23 +3029,23 @@
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D6" s="4">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" ref="E6:F6" ca="1" si="14">C6*111.021</f>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G6" s="3" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -3070,7 +3072,7 @@
       </c>
       <c r="M6" s="3" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
